--- a/imdb_top_250_movie.xlsx
+++ b/imdb_top_250_movie.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F250"/>
+  <dimension ref="A1:F251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,56 +434,56 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>The Shawshank Redemption</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>2h 22m</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>2.8M</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Release_Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Vote</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>The Godfather</t>
+          <t>The Shawshank Redemption</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2h 55m</t>
+          <t>2h 22m</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -481,56 +493,56 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2M</t>
+          <t>2.8M</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>The Dark Knight</t>
+          <t>The Godfather</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2h 32m</t>
+          <t>2h 55m</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.8M</t>
+          <t>2M</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>The Godfather Part II</t>
+          <t>The Dark Knight</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3h 22m</t>
+          <t>2h 32m</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -540,29 +552,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.3M</t>
+          <t>2.8M</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12 Angry Men</t>
+          <t>The Godfather Part II</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1h 36m</t>
+          <t>3h 22m</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -572,29 +584,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>836K</t>
+          <t>1.3M</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Schindler's List</t>
+          <t>12 Angry Men</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3h 15m</t>
+          <t>1h 36m</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -604,29 +616,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.4M</t>
+          <t>836K</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>The Lord of the Rings: The Return of the King</t>
+          <t>Schindler's List</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3h 21m</t>
+          <t>3h 15m</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -636,93 +648,93 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.9M</t>
+          <t>1.4M</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pulp Fiction</t>
+          <t>The Lord of the Rings: The Return of the King</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2h 34m</t>
+          <t>3h 21m</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.2M</t>
+          <t>1.9M</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>The Lord of the Rings: The Fellowship of the Ring</t>
+          <t>Pulp Fiction</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2h 58m</t>
+          <t>2h 34m</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2M</t>
+          <t>2.2M</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Il buono, il brutto, il cattivo</t>
+          <t>The Lord of the Rings: The Fellowship of the Ring</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2h 41m</t>
+          <t>2h 58m</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -732,29 +744,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>792K</t>
+          <t>2M</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Forrest Gump</t>
+          <t>Il buono, il brutto, il cattivo</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2h 22m</t>
+          <t>2h 41m</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -764,29 +776,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.2M</t>
+          <t>792K</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fight Club</t>
+          <t>Forrest Gump</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2h 19m</t>
+          <t>2h 22m</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -796,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -808,17 +820,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>The Lord of the Rings: The Two Towers</t>
+          <t>Fight Club</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2h 59m</t>
+          <t>2h 19m</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -828,29 +840,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.7M</t>
+          <t>2.2M</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Inception</t>
+          <t>The Lord of the Rings: The Two Towers</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2h 28m</t>
+          <t>2h 59m</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -865,56 +877,56 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.5M</t>
+          <t>1.7M</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Star Wars: Episode V - The Empire Strikes Back</t>
+          <t>Inception</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2h 4m</t>
+          <t>2h 28m</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.3M</t>
+          <t>2.5M</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>The Matrix</t>
+          <t>Star Wars: Episode V - The Empire Strikes Back</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2h 16m</t>
+          <t>2h 4m</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -924,29 +936,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2M</t>
+          <t>1.3M</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Goodfellas</t>
+          <t>The Matrix</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2h 25m</t>
+          <t>2h 16m</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -961,24 +973,24 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.2M</t>
+          <t>2M</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>One Flew Over the Cuckoo's Nest</t>
+          <t>Goodfellas</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2h 13m</t>
+          <t>2h 25m</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -993,29 +1005,29 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1M</t>
+          <t>1.2M</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Se7en</t>
+          <t>One Flew Over the Cuckoo's Nest</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2h 7m</t>
+          <t>2h 13m</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1025,24 +1037,24 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.7M</t>
+          <t>1M</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>It's a Wonderful Life</t>
+          <t>Se7en</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2h 10m</t>
+          <t>2h 7m</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1052,29 +1064,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>481K</t>
+          <t>1.7M</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Shichinin no samurai</t>
+          <t>It's a Wonderful Life</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3h 27m</t>
+          <t>2h 10m</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1084,61 +1096,61 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>359K</t>
+          <t>481K</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Spider-Man: Across the Spider-Verse</t>
+          <t>Shichinin no samurai</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2h 20m</t>
+          <t>3h 27m</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>278K</t>
+          <t>359K</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Interstellar</t>
+          <t>Spider-Man: Across the Spider-Verse</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2h 49m</t>
+          <t>2h 20m</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1148,61 +1160,61 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2M</t>
+          <t>278K</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>The Silence of the Lambs</t>
+          <t>Interstellar</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1h 58m</t>
+          <t>2h 49m</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.5M</t>
+          <t>2M</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Saving Private Ryan</t>
+          <t>The Silence of the Lambs</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2h 49m</t>
+          <t>1h 58m</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1224,17 +1236,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Cidade de Deus</t>
+          <t>Saving Private Ryan</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2h 10m</t>
+          <t>2h 49m</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1249,24 +1261,24 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>784K</t>
+          <t>1.5M</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>La vita è bella</t>
+          <t>Cidade de Deus</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1h 56m</t>
+          <t>2h 10m</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1276,29 +1288,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>725K</t>
+          <t>784K</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>The Green Mile</t>
+          <t>La vita è bella</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3h 9m</t>
+          <t>1h 56m</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1308,29 +1320,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.4M</t>
+          <t>725K</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Star Wars</t>
+          <t>The Green Mile</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2h 1m</t>
+          <t>3h 9m</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1340,7 +1352,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1352,17 +1364,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Terminator 2: Judgment Day</t>
+          <t>Star Wars</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2h 17m</t>
+          <t>2h 1m</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>1977</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1372,66 +1384,66 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1.1M</t>
+          <t>1.4M</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Back to the Future</t>
+          <t>Terminator 2: Judgment Day</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1h 56m</t>
+          <t>2h 17m</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1.3M</t>
+          <t>1.1M</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Spirited Away</t>
+          <t>Back to the Future</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2h 5m</t>
+          <t>1h 56m</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1441,56 +1453,56 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>814K</t>
+          <t>1.3M</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>The Pianist</t>
+          <t>Spirited Away</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2h 30m</t>
+          <t>2h 5m</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>882K</t>
+          <t>814K</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Psycho</t>
+          <t>The Pianist</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1h 49m</t>
+          <t>2h 30m</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1505,24 +1517,24 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>702K</t>
+          <t>882K</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Gisaengchung</t>
+          <t>Psycho</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2h 12m</t>
+          <t>1h 49m</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1537,24 +1549,24 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>895K</t>
+          <t>702K</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Gladiator</t>
+          <t>Gisaengchung</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2h 35m</t>
+          <t>2h 12m</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1569,24 +1581,24 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1.6M</t>
+          <t>895K</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>The Lion King</t>
+          <t>Gladiator</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1h 28m</t>
+          <t>2h 35m</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1596,24 +1608,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1.1M</t>
+          <t>1.6M</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Léon</t>
+          <t>The Lion King</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1h 50m</t>
+          <t>1h 28m</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1628,29 +1640,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1.2M</t>
+          <t>1.1M</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>American History X</t>
+          <t>Léon</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1h 59m</t>
+          <t>1h 50m</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1672,17 +1684,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>The Departed</t>
+          <t>American History X</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2h 31m</t>
+          <t>1h 59m</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1697,24 +1709,24 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1.4M</t>
+          <t>1.2M</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Whiplash</t>
+          <t>The Departed</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1h 46m</t>
+          <t>2h 31m</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1729,24 +1741,24 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>938K</t>
+          <t>1.4M</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>The Prestige</t>
+          <t>Whiplash</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2h 10m</t>
+          <t>1h 46m</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1756,29 +1768,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1.4M</t>
+          <t>938K</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>The Usual Suspects</t>
+          <t>The Prestige</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1h 46m</t>
+          <t>2h 10m</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1788,29 +1800,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1.1M</t>
+          <t>1.4M</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Hotaru no haka</t>
+          <t>The Usual Suspects</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1h 29m</t>
+          <t>1h 46m</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1820,34 +1832,34 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>297K</t>
+          <t>1.1M</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Seppuku</t>
+          <t>Hotaru no haka</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2h 13m</t>
+          <t>1h 29m</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1857,56 +1869,56 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>64K</t>
+          <t>297K</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Casablanca</t>
+          <t>Seppuku</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1h 42m</t>
+          <t>2h 13m</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>594K</t>
+          <t>64K</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Oppenheimer</t>
+          <t>Casablanca</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3h</t>
+          <t>1h 42m</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1916,29 +1928,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>463K</t>
+          <t>594K</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intouchables</t>
+          <t>Oppenheimer</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1h 52m</t>
+          <t>3h</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1953,24 +1965,24 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>902K</t>
+          <t>463K</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Modern Times</t>
+          <t>Intouchables</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1h 27m</t>
+          <t>1h 52m</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1936</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1980,29 +1992,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>253K</t>
+          <t>902K</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Nuovo Cinema Paradiso</t>
+          <t>Modern Times</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2h 35m</t>
+          <t>1h 27m</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1936</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2012,29 +2024,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>275K</t>
+          <t>253K</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>C'era una volta il West</t>
+          <t>Nuovo Cinema Paradiso</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2h 45m</t>
+          <t>2h 35m</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2044,29 +2056,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>343K</t>
+          <t>275K</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Rear Window</t>
+          <t>C'era una volta il West</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1h 52m</t>
+          <t>2h 45m</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2076,29 +2088,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>511K</t>
+          <t>343K</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Alien</t>
+          <t>Rear Window</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1h 57m</t>
+          <t>1h 52m</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2108,29 +2120,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>923K</t>
+          <t>511K</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>City Lights</t>
+          <t>Alien</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1h 27m</t>
+          <t>1h 57m</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2140,61 +2152,61 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>192K</t>
+          <t>923K</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Apocalypse Now</t>
+          <t>City Lights</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2h 27m</t>
+          <t>1h 27m</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1931</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>694K</t>
+          <t>192K</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Memento</t>
+          <t>Apocalypse Now</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1h 53m</t>
+          <t>2h 27m</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2209,29 +2221,29 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1.3M</t>
+          <t>694K</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Django Unchained</t>
+          <t>Memento</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2h 45m</t>
+          <t>1h 53m</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2241,56 +2253,56 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1.6M</t>
+          <t>1.3M</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Raiders of the Lost Ark</t>
+          <t>Django Unchained</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1h 55m</t>
+          <t>2h 45m</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1M</t>
+          <t>1.6M</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>WALL·E</t>
+          <t>Raiders of the Lost Ark</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1h 38m</t>
+          <t>1h 55m</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2300,29 +2312,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1.2M</t>
+          <t>1M</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Das Leben der Anderen</t>
+          <t>WALL·E</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2h 17m</t>
+          <t>1h 38m</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2332,29 +2344,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>402K</t>
+          <t>1.2M</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sunset Blvd.</t>
+          <t>Das Leben der Anderen</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1h 50m</t>
+          <t>2h 17m</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2364,29 +2376,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>231K</t>
+          <t>402K</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Paths of Glory</t>
+          <t>Sunset Blvd.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1h 28m</t>
+          <t>1h 50m</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2396,29 +2408,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>207K</t>
+          <t>231K</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Avengers: Infinity War</t>
+          <t>Paths of Glory</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2h 29m</t>
+          <t>1h 28m</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2428,29 +2440,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1.2M</t>
+          <t>207K</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>The Shining</t>
+          <t>Avengers: Infinity War</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2h 26m</t>
+          <t>2h 29m</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2460,29 +2472,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1.1M</t>
+          <t>1.2M</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>The Great Dictator</t>
+          <t>The Shining</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2h 5m</t>
+          <t>2h 26m</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2492,29 +2504,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>233K</t>
+          <t>1.1M</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Witness for the Prosecution</t>
+          <t>The Great Dictator</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1h 56m</t>
+          <t>2h 5m</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2524,29 +2536,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>133K</t>
+          <t>233K</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Spider-Man: Into the Spider-Verse</t>
+          <t>Witness for the Prosecution</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1h 57m</t>
+          <t>1h 56m</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2556,29 +2568,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>634K</t>
+          <t>133K</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Alien 2</t>
+          <t>Spider-Man: Into the Spider-Verse</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2h 17m</t>
+          <t>1h 57m</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2588,29 +2600,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>745K</t>
+          <t>634K</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Inglourious Basterds</t>
+          <t>Alien 2</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2h 33m</t>
+          <t>2h 17m</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2625,24 +2637,24 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1.5M</t>
+          <t>745K</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>The Dark Knight Rises</t>
+          <t>Inglourious Basterds</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2h 44m</t>
+          <t>2h 33m</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2652,93 +2664,93 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1.8M</t>
+          <t>1.5M</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>American Beauty</t>
+          <t>The Dark Knight Rises</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2h 2m</t>
+          <t>2h 44m</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1.2M</t>
+          <t>1.8M</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Dr. Strangelove or: How I Learned to Stop Worrying and Love the Bomb</t>
+          <t>American Beauty</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1h 35m</t>
+          <t>2h 2m</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1964</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>508K</t>
+          <t>1.2M</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Oldeuboi</t>
+          <t>Dr. Strangelove or: How I Learned to Stop Worrying and Love the Bomb</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>1h 35m</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1964</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2748,29 +2760,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>614K</t>
+          <t>508K</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Coco</t>
+          <t>Oldeuboi</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1h 45m</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2780,29 +2792,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>559K</t>
+          <t>614K</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Amadeus</t>
+          <t>Coco</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2h 40m</t>
+          <t>1h 45m</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2817,51 +2829,51 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>418K</t>
+          <t>559K</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Toy Story</t>
+          <t>Amadeus</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1h 21m</t>
+          <t>2h 40m</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1M</t>
+          <t>418K</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Das Boot</t>
+          <t>Toy Story</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2h 58m</t>
+          <t>1h 21m</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2871,61 +2883,61 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>259K</t>
+          <t>1M</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Braveheart</t>
+          <t>Das Boot</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3h 1m</t>
+          <t>2h 58m</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1.1M</t>
+          <t>259K</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Avengers: Endgame</t>
+          <t>Braveheart</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2h 2m</t>
+          <t>3h 1m</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2935,34 +2947,34 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1.2M</t>
+          <t>1.1M</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Joker</t>
+          <t>Avengers: Endgame</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2h 14m</t>
+          <t>2h 2m</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2972,24 +2984,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1.4M</t>
+          <t>1.2M</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Mononoke-hime</t>
+          <t>Joker</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2h 6m</t>
+          <t>2h 14m</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2999,34 +3011,34 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>418K</t>
+          <t>1.4M</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Good Will Hunting</t>
+          <t>Mononoke-hime</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1h 46m</t>
+          <t>2h 6m</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3036,125 +3048,125 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>TV-PG</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1M</t>
+          <t>418K</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Kimi no na wa.</t>
+          <t>Good Will Hunting</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>3h 49m</t>
+          <t>1h 46m</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>TV-PG</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>301K</t>
+          <t>1M</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Once Upon a Time in America</t>
+          <t>Kimi no na wa.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2h 50m</t>
+          <t>3h 49m</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>368K</t>
+          <t>301K</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>3 Idiots</t>
+          <t>Once Upon a Time in America</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2h 23m</t>
+          <t>2h 50m</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>420K</t>
+          <t>368K</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Tengoku to jigoku</t>
+          <t>3 Idiots</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1h 43m</t>
+          <t>2h 23m</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1952</t>
+          <t>1963</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3164,125 +3176,125 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>50K</t>
+          <t>420K</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Singin' in the Rain</t>
+          <t>Tengoku to jigoku</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2h 6m</t>
+          <t>1h 43m</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>1952</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>254K</t>
+          <t>50K</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Capharnaüm</t>
+          <t>Singin' in the Rain</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1h 42m</t>
+          <t>2h 6m</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Unrated</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>100K</t>
+          <t>254K</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Requiem for a Dream</t>
+          <t>Capharnaüm</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1h 43m</t>
+          <t>1h 42m</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Unrated</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>878K</t>
+          <t>100K</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Toy Story 3</t>
+          <t>Requiem for a Dream</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2h 22m</t>
+          <t>1h 43m</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3292,93 +3304,93 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>872K</t>
+          <t>878K</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Idi i smotri</t>
+          <t>Toy Story 3</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2h 11m</t>
+          <t>2h 22m</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>91K</t>
+          <t>872K</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Star Wars: Episode VI - Return of the Jedi</t>
+          <t>Idi i smotri</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1h 48m</t>
+          <t>2h 11m</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1.1M</t>
+          <t>91K</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Eternal Sunshine of the Spotless Mind</t>
+          <t>Star Wars: Episode VI - Return of the Jedi</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2h 29m</t>
+          <t>1h 48m</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3388,29 +3400,29 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1M</t>
+          <t>1.1M</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2001: A Space Odyssey</t>
+          <t>Eternal Sunshine of the Spotless Mind</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1h 55m</t>
+          <t>2h 29m</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3420,29 +3432,29 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>701K</t>
+          <t>1M</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Jagten</t>
+          <t>2001: A Space Odyssey</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1h 39m</t>
+          <t>1h 55m</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3457,24 +3469,24 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>352K</t>
+          <t>701K</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Reservoir Dogs</t>
+          <t>Jagten</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2h 23m</t>
+          <t>1h 39m</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1952</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3484,29 +3496,29 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1.1M</t>
+          <t>352K</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Ikiru</t>
+          <t>Reservoir Dogs</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>3h 38m</t>
+          <t>2h 23m</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>1952</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3516,29 +3528,29 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>84K</t>
+          <t>1.1M</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Lawrence of Arabia</t>
+          <t>Ikiru</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1h 59m</t>
+          <t>3h 38m</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1941</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3548,29 +3560,29 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>307K</t>
+          <t>84K</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Citizen Kane</t>
+          <t>Lawrence of Arabia</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1h 57m</t>
+          <t>1h 59m</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>1941</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3580,29 +3592,29 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>457K</t>
+          <t>307K</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>M - Eine Stadt sucht einen Mörder</t>
+          <t>Citizen Kane</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2h 5m</t>
+          <t>1h 57m</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1931</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3612,29 +3624,29 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>165K</t>
+          <t>457K</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>The Apartment</t>
+          <t>M - Eine Stadt sucht einen Mörder</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2h 16m</t>
+          <t>2h 5m</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3649,24 +3661,24 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>191K</t>
+          <t>165K</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>North by Northwest</t>
+          <t>The Apartment</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2h 8m</t>
+          <t>2h 16m</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3676,29 +3688,29 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>340K</t>
+          <t>191K</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Vertigo</t>
+          <t>North by Northwest</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1h 47m</t>
+          <t>2h 8m</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>1958</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3708,29 +3720,29 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>418K</t>
+          <t>340K</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Double Indemnity</t>
+          <t>Vertigo</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2h 2m</t>
+          <t>1h 47m</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3740,29 +3752,29 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>164K</t>
+          <t>418K</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Le fabuleux destin d'Amélie Poulain</t>
+          <t>Double Indemnity</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2h 50m</t>
+          <t>2h 2m</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3772,29 +3784,29 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>18+</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>780K</t>
+          <t>164K</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Scarface</t>
+          <t>Le fabuleux destin d'Amélie Poulain</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1h 56m</t>
+          <t>2h 50m</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3804,29 +3816,29 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>18+</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>888K</t>
+          <t>780K</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Full Metal Jacket</t>
+          <t>Scarface</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2h 16m</t>
+          <t>1h 56m</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3836,29 +3848,29 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>772K</t>
+          <t>888K</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A Clockwork Orange</t>
+          <t>Full Metal Jacket</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2h 11m</t>
+          <t>2h 16m</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>1971</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3868,29 +3880,29 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>862K</t>
+          <t>772K</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Incendies</t>
+          <t>A Clockwork Orange</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2h 50m</t>
+          <t>2h 11m</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3905,24 +3917,24 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>190K</t>
+          <t>862K</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Heat</t>
+          <t>Incendies</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1h 36m</t>
+          <t>2h 50m</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3932,29 +3944,29 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>696K</t>
+          <t>190K</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Up</t>
+          <t>Heat</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2h 40m</t>
+          <t>1h 36m</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3964,29 +3976,29 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>1.1M</t>
+          <t>696K</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Up</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2h 9m</t>
+          <t>2h 40m</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3996,19 +4008,19 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>107K</t>
+          <t>1.1M</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>To Kill a Mockingbird</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4018,7 +4030,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4028,29 +4040,29 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>327K</t>
+          <t>107K</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>The Sting</t>
+          <t>To Kill a Mockingbird</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2h 3m</t>
+          <t>2h 9m</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4060,29 +4072,29 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>274K</t>
+          <t>327K</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Jodaeiye Nader az Simin</t>
+          <t>The Sting</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2h 7m</t>
+          <t>2h 3m</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4097,221 +4109,221 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>254K</t>
+          <t>274K</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Indiana Jones and the Last Crusade</t>
+          <t>Jodaeiye Nader az Simin</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2h 33m</t>
+          <t>2h 7m</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>1927</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>794K</t>
+          <t>254K</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Metropolis</t>
+          <t>Indiana Jones and the Last Crusade</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2h 12m</t>
+          <t>2h 33m</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1927</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>181K</t>
+          <t>794K</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Die Hard</t>
+          <t>Metropolis</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2h 42m</t>
+          <t>2h 12m</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>915K</t>
+          <t>181K</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Taare Zameen Par</t>
+          <t>Die Hard</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>1h 44m</t>
+          <t>2h 42m</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>202K</t>
+          <t>915K</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Snatch</t>
+          <t>Taare Zameen Par</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1h 29m</t>
+          <t>1h 44m</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>889K</t>
+          <t>202K</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Ladri di biciclette</t>
+          <t>Snatch</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2h 18m</t>
+          <t>1h 29m</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>171K</t>
+          <t>889K</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>L.A. Confidential</t>
+          <t>Ladri di biciclette</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1h 54m</t>
+          <t>2h 18m</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4321,24 +4333,24 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>603K</t>
+          <t>171K</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Taxi Driver</t>
+          <t>L.A. Confidential</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1h 59m</t>
+          <t>1h 54m</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4353,24 +4365,24 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>890K</t>
+          <t>603K</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>1917</t>
+          <t>Taxi Driver</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2h 36m</t>
+          <t>1h 59m</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4385,24 +4397,24 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>645K</t>
+          <t>890K</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Der Untergang</t>
+          <t>1917</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2h 41m</t>
+          <t>2h 36m</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4412,93 +4424,93 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>368K</t>
+          <t>645K</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Dangal</t>
+          <t>Der Untergang</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2h 12m</t>
+          <t>2h 41m</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>203K</t>
+          <t>368K</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Per qualche dollaro in più</t>
+          <t>Dangal</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2h 20m</t>
+          <t>2h 12m</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>268K</t>
+          <t>203K</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Batman Begins</t>
+          <t>Per qualche dollaro in più</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2h 10m</t>
+          <t>2h 20m</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4513,61 +4525,61 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>1.5M</t>
+          <t>268K</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Top Gun: Maverick</t>
+          <t>Batman Begins</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2h 1m</t>
+          <t>2h 10m</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>635K</t>
+          <t>1.5M</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Some Like It Hot</t>
+          <t>Top Gun: Maverick</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1h 8m</t>
+          <t>2h 1m</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>1921</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4577,24 +4589,24 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>278K</t>
+          <t>635K</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>The Kid</t>
+          <t>Some Like It Hot</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>3h</t>
+          <t>1h 8m</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>1921</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4604,29 +4616,29 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>132K</t>
+          <t>278K</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>The Wolf of Wall Street</t>
+          <t>The Kid</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1h 37m</t>
+          <t>3h</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4636,29 +4648,29 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>1.5M</t>
+          <t>132K</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>The Father</t>
+          <t>The Wolf of Wall Street</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2h 10m</t>
+          <t>1h 37m</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4673,24 +4685,24 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>179K</t>
+          <t>1.5M</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Green Book</t>
+          <t>The Father</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2h 18m</t>
+          <t>2h 10m</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4700,29 +4712,29 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>539K</t>
+          <t>179K</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>All About Eve</t>
+          <t>Green Book</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2h 59m</t>
+          <t>2h 18m</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4732,93 +4744,93 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>136K</t>
+          <t>539K</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Judgment at Nuremberg</t>
+          <t>All About Eve</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1h 43m</t>
+          <t>2h 59m</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>82K</t>
+          <t>136K</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>The Truman Show</t>
+          <t>Judgment at Nuremberg</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2h 38m</t>
+          <t>1h 43m</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1.2M</t>
+          <t>82K</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>There Will Be Blood</t>
+          <t>The Truman Show</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2h 58m</t>
+          <t>2h 38m</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4833,24 +4845,24 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>622K</t>
+          <t>1.2M</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Casino</t>
+          <t>There Will Be Blood</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2h 40m</t>
+          <t>2h 58m</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4865,24 +4877,24 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>547K</t>
+          <t>622K</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Ran</t>
+          <t>Casino</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2h 18m</t>
+          <t>2h 40m</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4897,24 +4909,24 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>132K</t>
+          <t>547K</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Shutter Island</t>
+          <t>Ran</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1h 58m</t>
+          <t>2h 18m</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4929,24 +4941,24 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1.4M</t>
+          <t>132K</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>El laberinto del fauno</t>
+          <t>Shutter Island</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1h 47m</t>
+          <t>1h 58m</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4956,29 +4968,29 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>690K</t>
+          <t>1.4M</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>The Sixth Sense</t>
+          <t>El laberinto del fauno</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2h 7m</t>
+          <t>1h 47m</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4993,24 +5005,24 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>1M</t>
+          <t>690K</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Jurassic Park</t>
+          <t>The Sixth Sense</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2h 10m</t>
+          <t>2h 7m</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -5020,7 +5032,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5032,17 +5044,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Unforgiven</t>
+          <t>Jurassic Park</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2h 15m</t>
+          <t>2h 10m</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -5052,29 +5064,29 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>427K</t>
+          <t>1M</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A Beautiful Mind</t>
+          <t>Unforgiven</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2h 6m</t>
+          <t>2h 15m</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -5084,29 +5096,29 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>966K</t>
+          <t>427K</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>The Treasure of the Sierra Madre</t>
+          <t>A Beautiful Mind</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1h 50m</t>
+          <t>2h 6m</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -5116,29 +5128,29 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>130K</t>
+          <t>966K</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Yôjinbô</t>
+          <t>The Treasure of the Sierra Madre</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2h 2m</t>
+          <t>1h 50m</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -5148,29 +5160,29 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>128K</t>
+          <t>130K</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>No Country for Old Men</t>
+          <t>Yôjinbô</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1h 51m</t>
+          <t>2h 2m</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -5185,24 +5197,24 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>1M</t>
+          <t>128K</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Kill Bill: Vol. 1</t>
+          <t>No Country for Old Men</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1h 31m</t>
+          <t>1h 51m</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -5212,29 +5224,29 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>1.2M</t>
+          <t>1M</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Monty Python and the Holy Grail</t>
+          <t>Kill Bill: Vol. 1</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1h 49m</t>
+          <t>1h 31m</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -5244,29 +5256,29 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>16+</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>560K</t>
+          <t>1.2M</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>The Thing</t>
+          <t>Monty Python and the Holy Grail</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2h 52m</t>
+          <t>1h 49m</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -5276,29 +5288,29 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>16+</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>450K</t>
+          <t>560K</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>The Great Escape</t>
+          <t>The Thing</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>1h 28m</t>
+          <t>2h 52m</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1963</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -5308,29 +5320,29 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>254K</t>
+          <t>450K</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Rashômon</t>
+          <t>The Great Escape</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>1h 40m</t>
+          <t>1h 28m</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5340,29 +5352,29 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>176K</t>
+          <t>254K</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Finding Nemo</t>
+          <t>Rashômon</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2h 4m</t>
+          <t>1h 40m</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -5372,29 +5384,29 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1.1M</t>
+          <t>176K</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>The Elephant Man</t>
+          <t>Finding Nemo</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2h 10m</t>
+          <t>2h 4m</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5404,29 +5416,29 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>253K</t>
+          <t>1.1M</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Chinatown</t>
+          <t>The Elephant Man</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>1h 59m</t>
+          <t>2h 10m</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -5436,29 +5448,29 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>341K</t>
+          <t>253K</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Hauru no ugoku shiro</t>
+          <t>Chinatown</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>1h 45m</t>
+          <t>1h 59m</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5473,24 +5485,24 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>427K</t>
+          <t>341K</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Dial M for Murder</t>
+          <t>Hauru no ugoku shiro</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>3h 58m</t>
+          <t>1h 45m</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>1939</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -5500,29 +5512,29 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>184K</t>
+          <t>427K</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Gone with the Wind</t>
+          <t>Dial M for Murder</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2h 12m</t>
+          <t>3h 58m</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1939</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5532,29 +5544,29 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>327K</t>
+          <t>184K</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>V for Vendetta</t>
+          <t>Gone with the Wind</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2h 9m</t>
+          <t>2h 12m</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5569,29 +5581,29 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>1.2M</t>
+          <t>327K</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Raging Bull</t>
+          <t>V for Vendetta</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>1h 47m</t>
+          <t>2h 9m</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -5601,24 +5613,24 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>370K</t>
+          <t>1.2M</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Lock, Stock and Two Smoking Barrels</t>
+          <t>Raging Bull</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2h 33m</t>
+          <t>1h 47m</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5633,24 +5645,24 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>604K</t>
+          <t>370K</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Prisoners</t>
+          <t>Lock, Stock and Two Smoking Barrels</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2h 9m</t>
+          <t>2h 33m</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5665,56 +5677,56 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>775K</t>
+          <t>604K</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>El secreto de sus ojos</t>
+          <t>Prisoners</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2h 28m</t>
+          <t>2h 9m</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>218K</t>
+          <t>775K</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Spider-Man: No Way Home</t>
+          <t>El secreto de sus ojos</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>1h 35m</t>
+          <t>2h 28m</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5724,61 +5736,61 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>837K</t>
+          <t>218K</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Inside Out</t>
+          <t>Spider-Man: No Way Home</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1h 55m</t>
+          <t>1h 35m</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>757K</t>
+          <t>837K</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Three Billboards Outside Ebbing, Missouri</t>
+          <t>Inside Out</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2h 41m</t>
+          <t>1h 55m</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5788,29 +5800,29 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>538K</t>
+          <t>757K</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>The Bridge on the River Kwai</t>
+          <t>Three Billboards Outside Ebbing, Missouri</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>1h 33m</t>
+          <t>2h 41m</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5820,24 +5832,24 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>229K</t>
+          <t>538K</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Trainspotting</t>
+          <t>The Bridge on the River Kwai</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>1h 38m</t>
+          <t>1h 33m</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5857,24 +5869,24 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>711K</t>
+          <t>229K</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Fargo</t>
+          <t>Trainspotting</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2h 20m</t>
+          <t>1h 38m</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5884,29 +5896,29 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>705K</t>
+          <t>711K</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Warrior</t>
+          <t>Fargo</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>1h 56m</t>
+          <t>2h 20m</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5916,29 +5928,29 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>489K</t>
+          <t>705K</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Gran Torino</t>
+          <t>Warrior</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2h 21m</t>
+          <t>1h 56m</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5948,29 +5960,29 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>800K</t>
+          <t>489K</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Catch Me If You Can</t>
+          <t>Gran Torino</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>1h 26m</t>
+          <t>2h 21m</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5980,29 +5992,29 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>1.1M</t>
+          <t>800K</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Tonari no Totoro</t>
+          <t>Catch Me If You Can</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2h 12m</t>
+          <t>1h 26m</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -6012,29 +6024,29 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>363K</t>
+          <t>1.1M</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Million Dollar Baby</t>
+          <t>Tonari no Totoro</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>1h 36m</t>
+          <t>2h 12m</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -6044,130 +6056,130 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>709K</t>
+          <t>363K</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Klaus</t>
+          <t>Million Dollar Baby</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2h 10m</t>
+          <t>1h 36m</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>173K</t>
+          <t>709K</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Harry Potter and the Deathly Hallows - Part 2</t>
+          <t>Klaus</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>1h 29m</t>
+          <t>2h 10m</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>921K</t>
+          <t>173K</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Bacheha-Ye aseman</t>
+          <t>Harry Potter and the Deathly Hallows - Part 2</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>1h 57m</t>
+          <t>1h 29m</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>79K</t>
+          <t>921K</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Blade Runner</t>
+          <t>Bacheha-Ye aseman</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2h 14m</t>
+          <t>1h 57m</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6177,24 +6189,24 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>803K</t>
+          <t>79K</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>12 Years a Slave</t>
+          <t>Blade Runner</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>1h 41m</t>
+          <t>2h 14m</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -6209,24 +6221,24 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>727K</t>
+          <t>803K</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Before Sunrise</t>
+          <t>12 Years a Slave</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>1h 39m</t>
+          <t>1h 41m</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -6241,24 +6253,24 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>329K</t>
+          <t>727K</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>The Grand Budapest Hotel</t>
+          <t>Before Sunrise</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>1h 35m</t>
+          <t>1h 39m</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -6268,29 +6280,29 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>862K</t>
+          <t>329K</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>The Gold Rush</t>
+          <t>The Grand Budapest Hotel</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>3h 32m</t>
+          <t>1h 35m</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -6300,29 +6312,29 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>116K</t>
+          <t>862K</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Ben-Hur</t>
+          <t>The Gold Rush</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2h 29m</t>
+          <t>3h 32m</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -6332,29 +6344,29 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>249K</t>
+          <t>116K</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Gone Girl</t>
+          <t>Ben-Hur</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>3h 5m</t>
+          <t>2h 29m</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -6364,29 +6376,29 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>1M</t>
+          <t>249K</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Barry Lyndon</t>
+          <t>Gone Girl</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>1h 48m</t>
+          <t>3h 5m</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -6396,29 +6408,29 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>178K</t>
+          <t>1M</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>On the Waterfront</t>
+          <t>Barry Lyndon</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2h 19m</t>
+          <t>1h 48m</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -6428,29 +6440,29 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>161K</t>
+          <t>178K</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Hacksaw Ridge</t>
+          <t>On the Waterfront</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2h 13m</t>
+          <t>2h 19m</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -6465,24 +6477,24 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>571K</t>
+          <t>161K</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>In the Name of the Father</t>
+          <t>Hacksaw Ridge</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2h 11m</t>
+          <t>2h 13m</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -6492,29 +6504,29 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>183K</t>
+          <t>571K</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Salinui chueok</t>
+          <t>In the Name of the Father</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>1h 18m</t>
+          <t>2h 11m</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>1926</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -6524,29 +6536,29 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>205K</t>
+          <t>183K</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>The General</t>
+          <t>Salinui chueok</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>3h 3m</t>
+          <t>1h 18m</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>1926</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -6556,29 +6568,29 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>96K</t>
+          <t>205K</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>The Deer Hunter</t>
+          <t>The General</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>1h 31m</t>
+          <t>3h 3m</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1978</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -6588,29 +6600,29 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>354K</t>
+          <t>96K</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Smultronstället</t>
+          <t>The Deer Hunter</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>1h 44m</t>
+          <t>1h 31m</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>1949</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -6620,29 +6632,29 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>112K</t>
+          <t>354K</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>The Third Man</t>
+          <t>Smultronstället</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2h 2m</t>
+          <t>1h 44m</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1949</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -6652,29 +6664,29 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>178K</t>
+          <t>112K</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Relatos salvajes</t>
+          <t>The Third Man</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2h 11m</t>
+          <t>2h 2m</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>1953</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -6684,61 +6696,61 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>210K</t>
+          <t>178K</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Le salaire de la peur</t>
+          <t>Relatos salvajes</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>45m</t>
+          <t>2h 11m</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>1924</t>
+          <t>1953</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>65K</t>
+          <t>210K</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sherlock Jr.</t>
+          <t>Le salaire de la peur</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2h 8m</t>
+          <t>45m</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1924</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -6748,61 +6760,61 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>54K</t>
+          <t>65K</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Dead Poets Society</t>
+          <t>Sherlock Jr.</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>2h 8m</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>525K</t>
+          <t>54K</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Mad Max: Fury Road</t>
+          <t>Dead Poets Society</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2h 9m</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>1939</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6812,29 +6824,29 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>1.1M</t>
+          <t>525K</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Mr. Smith Goes to Washington</t>
+          <t>Mad Max: Fury Road</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>1h 32m</t>
+          <t>2h 9m</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1939</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6844,29 +6856,29 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>119K</t>
+          <t>1.1M</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Monsters, Inc.</t>
+          <t>Mr. Smith Goes to Washington</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2h 4m</t>
+          <t>1h 32m</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6876,29 +6888,29 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>953K</t>
+          <t>119K</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Jaws</t>
+          <t>Monsters, Inc.</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>1h 38m</t>
+          <t>2h 4m</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6913,24 +6925,24 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>643K</t>
+          <t>953K</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>How to Train Your Dragon</t>
+          <t>Jaws</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>1h 32m</t>
+          <t>1h 38m</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6940,29 +6952,29 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>778K</t>
+          <t>643K</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Mary and Max.</t>
+          <t>How to Train Your Dragon</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>1h 36m</t>
+          <t>1h 32m</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6977,24 +6989,24 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>184K</t>
+          <t>778K</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Det sjunde inseglet</t>
+          <t>Mary and Max.</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>1h 58m</t>
+          <t>1h 36m</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -7004,29 +7016,29 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>194K</t>
+          <t>184K</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Room</t>
+          <t>Det sjunde inseglet</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2h 32m</t>
+          <t>1h 58m</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -7036,29 +7048,29 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>440K</t>
+          <t>194K</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Ford v Ferrari</t>
+          <t>Room</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>1h 57m</t>
+          <t>2h 32m</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -7068,7 +7080,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -7080,17 +7092,17 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>The Big Lebowski</t>
+          <t>Ford v Ferrari</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2h 16m</t>
+          <t>1h 57m</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>1953</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -7100,29 +7112,29 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>841K</t>
+          <t>440K</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Tôkyô monogatari</t>
+          <t>The Big Lebowski</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>1h 51m</t>
+          <t>2h 16m</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>1953</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -7132,29 +7144,29 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>66K</t>
+          <t>841K</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Ratatouille</t>
+          <t>Tôkyô monogatari</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>1h 51m</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -7164,29 +7176,29 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>792K</t>
+          <t>66K</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Rocky</t>
+          <t>Ratatouille</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2h 1m</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -7196,29 +7208,29 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>612K</t>
+          <t>792K</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Hotel Rwanda</t>
+          <t>Rocky</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2h 17m</t>
+          <t>2h 1m</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -7228,29 +7240,29 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>366K</t>
+          <t>612K</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Hotel Rwanda</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>1h 50m</t>
+          <t>2h 17m</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>1928</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -7260,29 +7272,29 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>807K</t>
+          <t>366K</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>La passion de Jeanne d'Arc</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2h 9m</t>
+          <t>1h 50m</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -7292,29 +7304,29 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>59K</t>
+          <t>807K</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Spotlight</t>
+          <t>La passion de Jeanne d'Arc</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2h</t>
+          <t>2h 9m</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -7329,24 +7341,24 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>491K</t>
+          <t>59K</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Platoon</t>
+          <t>Spotlight</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>1h 47m</t>
+          <t>2h</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -7361,24 +7373,24 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>430K</t>
+          <t>491K</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>The Terminator</t>
+          <t>Platoon</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2h 44m</t>
+          <t>1h 47m</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -7388,66 +7400,66 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>TV-MA</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>903K</t>
+          <t>430K</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Jai Bhim</t>
+          <t>The Terminator</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>1h 20m</t>
+          <t>2h 44m</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>TV-MA</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>211K</t>
+          <t>903K</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Before Sunset</t>
+          <t>Jai Bhim</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2h 3m</t>
+          <t>1h 20m</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -7457,24 +7469,24 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>280K</t>
+          <t>211K</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Rush</t>
+          <t>Before Sunset</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2h 1m</t>
+          <t>2h 3m</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -7489,24 +7501,24 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>501K</t>
+          <t>280K</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Network</t>
+          <t>Rush</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>1h 29m</t>
+          <t>2h 1m</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -7521,24 +7533,24 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>166K</t>
+          <t>501K</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Stand by Me</t>
+          <t>Network</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2h 50m</t>
+          <t>1h 29m</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -7548,29 +7560,29 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>429K</t>
+          <t>166K</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>The Best Years of Our Lives</t>
+          <t>Stand by Me</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2h 2m</t>
+          <t>2h 50m</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -7580,29 +7592,29 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>69K</t>
+          <t>429K</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>The Exorcist</t>
+          <t>The Best Years of Our Lives</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>1h 38m</t>
+          <t>2h 2m</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -7612,29 +7624,29 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>439K</t>
+          <t>69K</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>La haine</t>
+          <t>The Exorcist</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>1h 42m</t>
+          <t>1h 38m</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>1939</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -7644,29 +7656,29 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>188K</t>
+          <t>439K</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>The Wizard of Oz</t>
+          <t>La haine</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2h 23m</t>
+          <t>1h 42m</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1939</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -7676,29 +7688,29 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>418K</t>
+          <t>188K</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Pirates of the Caribbean: The Curse of the Black Pearl</t>
+          <t>The Wizard of Oz</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2h 28m</t>
+          <t>2h 23m</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -7708,29 +7720,29 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>1.2M</t>
+          <t>418K</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Into the Wild</t>
+          <t>Pirates of the Caribbean: The Curse of the Black Pearl</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>1h 55m</t>
+          <t>2h 28m</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -7740,93 +7752,93 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>645K</t>
+          <t>1.2M</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>The Incredibles</t>
+          <t>Into the Wild</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>1h 39m</t>
+          <t>1h 55m</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>782K</t>
+          <t>645K</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>To Be or Not to Be</t>
+          <t>The Incredibles</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>1h 52m</t>
+          <t>1h 39m</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>41K</t>
+          <t>782K</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Babam ve Oglum</t>
+          <t>To Be or Not to Be</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>1h 33m</t>
+          <t>1h 52m</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -7836,61 +7848,61 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>90K</t>
+          <t>41K</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Hachi: A Dog's Tale</t>
+          <t>Babam ve Oglum</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2h 25m</t>
+          <t>1h 33m</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>302K</t>
+          <t>90K</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Ah-ga-ssi</t>
+          <t>Hachi: A Dog's Tale</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2h 9m</t>
+          <t>2h 25m</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -7900,29 +7912,29 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>164K</t>
+          <t>302K</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>The Grapes of Wrath</t>
+          <t>Ah-ga-ssi</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>1h 41m</t>
+          <t>2h 9m</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -7932,93 +7944,93 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>98K</t>
+          <t>164K</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Groundhog Day</t>
+          <t>The Grapes of Wrath</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2h 1m</t>
+          <t>1h 41m</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>665K</t>
+          <t>98K</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>La battaglia di Algeri</t>
+          <t>Groundhog Day</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2h 34m</t>
+          <t>2h 1m</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>64K</t>
+          <t>665K</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Amores perros</t>
+          <t>La battaglia di Algeri</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2h 10m</t>
+          <t>2h 34m</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -8028,29 +8040,29 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>249K</t>
+          <t>64K</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Rebecca</t>
+          <t>Amores perros</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2h 52m</t>
+          <t>2h 10m</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -8060,29 +8072,29 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>143K</t>
+          <t>249K</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>The Sound of Music</t>
+          <t>Rebecca</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2h 7m</t>
+          <t>2h 52m</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -8092,29 +8104,29 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>250K</t>
+          <t>143K</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Cool Hand Luke</t>
+          <t>The Sound of Music</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2h 5m</t>
+          <t>2h 7m</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -8124,93 +8136,93 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>185K</t>
+          <t>250K</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Pather Panchali</t>
+          <t>Cool Hand Luke</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>1h 26m</t>
+          <t>2h 5m</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>8.2</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>37K</t>
+          <t>185K</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>The Iron Giant</t>
+          <t>Pather Panchali</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>1h 45m</t>
+          <t>1h 26m</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>1934</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>8.2</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>217K</t>
+          <t>37K</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>It Happened One Night</t>
+          <t>The Iron Giant</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2h 26m</t>
+          <t>1h 45m</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1934</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -8220,29 +8232,29 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>Passed</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>109K</t>
+          <t>217K</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>The Help</t>
+          <t>It Happened One Night</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>1h 39m</t>
+          <t>2h 26m</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -8252,29 +8264,29 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>PG-13</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>481K</t>
+          <t>109K</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Les quatre cents coups</t>
+          <t>The Help</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>1h 25m</t>
+          <t>1h 39m</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -8289,24 +8301,24 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>125K</t>
+          <t>481K</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Persona</t>
+          <t>Les quatre cents coups</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>1h 34m</t>
+          <t>1h 25m</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -8316,61 +8328,61 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>127K</t>
+          <t>125K</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Life of Brian</t>
+          <t>Persona</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>1h 30m</t>
+          <t>1h 34m</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>8.1</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>416K</t>
+          <t>127K</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Aladdin</t>
+          <t>Life of Brian</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>3h 1m</t>
+          <t>1h 30m</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -8380,42 +8392,74 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>PG-13</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>451K</t>
+          <t>416K</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
+          <t>Aladdin</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>3h 1m</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>PG-13</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>451K</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
           <t>Dances with Wolves</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B251" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
+      <c r="C251" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D250" t="inlineStr">
+      <c r="D251" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="E250" t="inlineStr">
+      <c r="E251" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
+      <c r="F251" t="inlineStr">
         <is>
           <t>282K</t>
         </is>
